--- a/data/processed/MatchedResults.xlsx
+++ b/data/processed/MatchedResults.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,15 +451,35 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>ProviderCity</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ProviderState</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>FacilityName</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Address</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>State</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>similarity</t>
         </is>
@@ -484,15 +504,35 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>DOTHAN</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>SOUTHEAST ALABAMA MEDICAL CENTER</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>1108 ROSS CLARK CIRCLE</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>DOTHAN</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
         <v>100</v>
       </c>
     </row>
@@ -515,16 +555,36 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>BOAZ</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>MARSHALL MEDICAL CENTER</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>2505 U S HIGHWAY 431 NORTH</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>100</v>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>BOAZ</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>98.75</v>
       </c>
     </row>
     <row r="4">
@@ -546,16 +606,36 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>FLORENCE</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>MEMORIAL HOSPITAL</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>303 NORTH ALLUMBAUGH STREET</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>85.5</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>FLORENCE</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>93.875</v>
       </c>
     </row>
     <row r="5">
@@ -577,15 +657,35 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>OPP</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>MIZELL MEMORIAL HOSPITAL</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>702 N MAIN ST</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>OPP</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>100</v>
       </c>
     </row>
@@ -608,15 +708,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>BIRMINGHAM</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>ST VINCENT'S EAST</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>50 MEDICAL PARK EAST DRIVE</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>BIRMINGHAM</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>100</v>
       </c>
     </row>
@@ -639,15 +759,35 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>FORT PAYNE</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>DEKALB REGIONAL MEDICAL CENTER</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>200 MED CENTER DRIVE</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>FORT PAYNE</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>100</v>
       </c>
     </row>
@@ -670,15 +810,35 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>ALABASTER</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>SHELBY BAPTIST MEDICAL CENTER</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>1000 FIRST STREET NORTH</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>ALABASTER</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>100</v>
       </c>
     </row>
@@ -701,15 +861,35 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>SHEFFIELD</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>HELEN KELLER MEMORIAL HOSPITAL</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>1300 SOUTH MONTGOMERY AVENUE</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>SHEFFIELD</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>100</v>
       </c>
     </row>
@@ -732,15 +912,35 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>OZARK</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>DALE MEDICAL CENTER</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>126 HOSPITAL AVE</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>OZARK</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>100</v>
       </c>
     </row>
@@ -763,15 +963,35 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>MONTGOMERY</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>BAPTIST MEDICAL CENTER SOUTH</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>2105 EAST SOUTH BOULEVARD</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>MONTGOMERY</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>100</v>
       </c>
     </row>
